--- a/Data Input Sheets/Alol Island World Tourmanent.xlsx
+++ b/Data Input Sheets/Alol Island World Tourmanent.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/df1a1f2124126429/Documents/GitHub/pokemon_game/Data Input Sheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mango\OneDrive\Documents\GitHub\pokemon_game\Data Input Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13635" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13635" firstSheet="8" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Kanto Leader" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="262">
   <si>
     <t>Trainer</t>
   </si>
@@ -80,27 +80,15 @@
     <t>Sandslash, Nidoking, Gliscor, Dustorm,Donphan, Marowak</t>
   </si>
   <si>
-    <t>Golem, Wrock, Steelix, Ninetails, Aerodactly, Fukle</t>
-  </si>
-  <si>
     <t>Starmie, Togekiss, Kingdra, Feraligatr, Lanturn, Golduck</t>
   </si>
   <si>
-    <t>Alakazam, Psyzic, MeowsticF, Espeon, Slowking, Metagross</t>
-  </si>
-  <si>
-    <t>Raichu, Electivre, Panzar, Magnezone, Ampharos, Luxray</t>
-  </si>
-  <si>
     <t>Vileplume, Victribel, Parajoint, Sunflora, Lilligant, Tangrowth</t>
   </si>
   <si>
     <t>Tazorn, Venomoth, Muk, Crobat, Seviper, Qwilfish</t>
   </si>
   <si>
-    <t>Magmortar, Arcanine, Houndoom, Panzar, Charizard, Willofer</t>
-  </si>
-  <si>
     <t>Magmortar, Arcanine, Torkoal, Volcarona, Shellgar, Salazzle</t>
   </si>
   <si>
@@ -134,9 +122,6 @@
     <t>Kimono Girl 1</t>
   </si>
   <si>
-    <t>KG2</t>
-  </si>
-  <si>
     <t>KG3</t>
   </si>
   <si>
@@ -147,13 +132,700 @@
   </si>
   <si>
     <t>Eusine</t>
+  </si>
+  <si>
+    <t>Umbreon, Honchkrow, Heidragon, Amuk, Zarsti, Purugly</t>
+  </si>
+  <si>
+    <t>Mammoswine, Bodanxious, Glaceon, Weavile, Walrein, A Sandslash</t>
+  </si>
+  <si>
+    <t>Kingdra, Dragonite, Cardinuckle, Serpentia, Heidragon, Tyrantrum</t>
+  </si>
+  <si>
+    <t>Hypno, Gengar, Electrode, Wobbufett, Ferrothorn, Galvantula</t>
+  </si>
+  <si>
+    <t>KG1 - Zuki</t>
+  </si>
+  <si>
+    <t>KG2 - Naoko</t>
+  </si>
+  <si>
+    <t>KG3 - Miki</t>
+  </si>
+  <si>
+    <t>KG4 - Sayo</t>
+  </si>
+  <si>
+    <t>KG5 - Kuni</t>
+  </si>
+  <si>
+    <t>Umbreon, Apersian, Bisharp, Shrewdt, Mandibuzz, Weavile</t>
+  </si>
+  <si>
+    <t>Espeon, Mr. Mime, Gallade, Psyzic, Alakazam, MeowsticM</t>
+  </si>
+  <si>
+    <t>Golem, Wrock, MSteelix, Ninetails, Aerodactlyl, Fukle</t>
+  </si>
+  <si>
+    <t>MAlakazam, Psyzic, MeowsticF, Espeon, Slowking, Metagross</t>
+  </si>
+  <si>
+    <t>Raichu, Electivre, Panzar, Magnezone, MAmpharos, Luxray</t>
+  </si>
+  <si>
+    <t>Magmortar, Arcanine, MHoundoom, Panzar, Charizard, Willofer</t>
+  </si>
+  <si>
+    <t>MPidgeot, Noctowl, Nimbuster,Swellow, Staraptor, Swanna</t>
+  </si>
+  <si>
+    <t>Clefable,Wigglytuff,fragiice,m gardevoir, Dedenne, Whimsicott</t>
+  </si>
+  <si>
+    <t>Gengar, Mismagius, Phantasmeon, mSableye,Dusknoir,Amarowak</t>
+  </si>
+  <si>
+    <t>Steelix, Magnezone, Dolphnite,Frozight,Adugtrio,mAggron</t>
+  </si>
+  <si>
+    <t>Scizor, mHeracross, Mosquamber, Galvantula, Araquanid, Beedrill</t>
+  </si>
+  <si>
+    <t>Flareon, Rapidash, Darumaka, Camerupt, Torkoal, Charizard</t>
+  </si>
+  <si>
+    <t>Jolteon, A Golem, Dedenne, Togedemaru, Manectric, Electabuzz</t>
+  </si>
+  <si>
+    <t>Vaporeon, Gyarados, Ludicolo, Panzar, Emolga, Elektross</t>
+  </si>
+  <si>
+    <t>Oak</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Elm</t>
+  </si>
+  <si>
+    <t>Serena</t>
+  </si>
+  <si>
+    <t>Agatha</t>
+  </si>
+  <si>
+    <t>Ivy</t>
+  </si>
+  <si>
+    <t>Sycamore</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Wally</t>
+  </si>
+  <si>
+    <t>Tracey</t>
+  </si>
+  <si>
+    <t>Alder</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cynthia</t>
+  </si>
+  <si>
+    <t>Hau</t>
+  </si>
+  <si>
+    <t>Lillie</t>
+  </si>
+  <si>
+    <t>Bruno</t>
+  </si>
+  <si>
+    <t>Lorelai</t>
+  </si>
+  <si>
+    <t>Kukui</t>
+  </si>
+  <si>
+    <t>Steven</t>
+  </si>
+  <si>
+    <t>Ella</t>
+  </si>
+  <si>
+    <t>Sabrina</t>
+  </si>
+  <si>
+    <t>Claire</t>
+  </si>
+  <si>
+    <t>Koga</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>Whitney</t>
+  </si>
+  <si>
+    <t>Morty</t>
+  </si>
+  <si>
+    <t>Chuck</t>
+  </si>
+  <si>
+    <t>Pryce</t>
+  </si>
+  <si>
+    <t>Lance</t>
+  </si>
+  <si>
+    <t>Drake</t>
+  </si>
+  <si>
+    <t>Naruto</t>
+  </si>
+  <si>
+    <t>Sakura</t>
+  </si>
+  <si>
+    <t>Saske</t>
+  </si>
+  <si>
+    <t>Choji</t>
+  </si>
+  <si>
+    <t>Kiba</t>
+  </si>
+  <si>
+    <t>Neji</t>
+  </si>
+  <si>
+    <t>Shikamaru</t>
+  </si>
+  <si>
+    <t>Hinata</t>
+  </si>
+  <si>
+    <t>Enno</t>
+  </si>
+  <si>
+    <t>Ten Ten</t>
+  </si>
+  <si>
+    <t>Rock Lee</t>
+  </si>
+  <si>
+    <t>Gaara</t>
+  </si>
+  <si>
+    <t>Kakashi</t>
+  </si>
+  <si>
+    <t>Shino</t>
+  </si>
+  <si>
+    <t>Luffy</t>
+  </si>
+  <si>
+    <t>Zoro</t>
+  </si>
+  <si>
+    <t>Nami</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Usopp</t>
+  </si>
+  <si>
+    <t>Sanjii</t>
+  </si>
+  <si>
+    <t>Chopper</t>
+  </si>
+  <si>
+    <t>Robin</t>
+  </si>
+  <si>
+    <t>Franky</t>
+  </si>
+  <si>
+    <t>Brooke</t>
+  </si>
+  <si>
+    <t>Ace</t>
+  </si>
+  <si>
+    <t>Moolou</t>
+  </si>
+  <si>
+    <t>AAA</t>
+  </si>
+  <si>
+    <t>AAA Jr.</t>
+  </si>
+  <si>
+    <t>Ruby</t>
+  </si>
+  <si>
+    <t>Antoine</t>
+  </si>
+  <si>
+    <t>Mike</t>
+  </si>
+  <si>
+    <t>Mikal</t>
+  </si>
+  <si>
+    <t>Lyra</t>
+  </si>
+  <si>
+    <t>Mangian</t>
+  </si>
+  <si>
+    <t>Rocker</t>
+  </si>
+  <si>
+    <t>Trever</t>
+  </si>
+  <si>
+    <t>Thor</t>
+  </si>
+  <si>
+    <t>Mau Kul</t>
+  </si>
+  <si>
+    <t>Brocean</t>
+  </si>
+  <si>
+    <t>Yellow</t>
+  </si>
+  <si>
+    <t>Crystal</t>
+  </si>
+  <si>
+    <t>Chelsea</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>Chelsea H</t>
+  </si>
+  <si>
+    <t>Anna</t>
+  </si>
+  <si>
+    <t>Chris</t>
+  </si>
+  <si>
+    <t>Sam</t>
+  </si>
+  <si>
+    <t>Pat D</t>
+  </si>
+  <si>
+    <t>Jenna</t>
+  </si>
+  <si>
+    <t>Isy</t>
+  </si>
+  <si>
+    <t>Mike M</t>
+  </si>
+  <si>
+    <t>Lou</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Brianna</t>
+  </si>
+  <si>
+    <t>Dan</t>
+  </si>
+  <si>
+    <t>Ethan</t>
+  </si>
+  <si>
+    <t>Cubert</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ohm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Janine</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Koal,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Falkner</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Zabuza</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bugsy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> KG2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mike M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lou</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> John</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Chelsea H</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>Gold</t>
+  </si>
+  <si>
+    <t>Cynthia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ash</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Agatha</t>
+  </si>
+  <si>
+    <t>Elm</t>
+  </si>
+  <si>
+    <t>Cameron</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ivy</t>
+  </si>
+  <si>
+    <t>Iris</t>
+  </si>
+  <si>
+    <t>Tauros, Gyarados, Arcanine, Exeggutor, Sylveon, Raichu</t>
+  </si>
+  <si>
+    <t>Typhlosian, Feraligatr, Meganium, Ursaring, Donphan, Noctowl</t>
+  </si>
+  <si>
+    <t>Delphox, Sylveon, Pangoro, Milotic, Lopunny, Pikachu</t>
+  </si>
+  <si>
+    <t>Gengar, Gengar, Dusclops, Arbok, Crobat, Umbreon</t>
+  </si>
+  <si>
+    <t>Tangrowth, Venusaur, Delcatty, Bodanxious, Steelix, Cloyster</t>
+  </si>
+  <si>
+    <t>Zoroark, Elektross, Ferrothorn, Klinklang, Archeops, Carracosta</t>
+  </si>
+  <si>
+    <t>mGallade, Roserade, Talonflame, Azumarill, Magnezone, Garchomp</t>
+  </si>
+  <si>
+    <t>mGarchomp, Chesnaught, Delphox, Greninja, Hawlucha, Florges</t>
+  </si>
+  <si>
+    <t>mGengar, Gengar, Dusclops, Arbok, Crobat, Umbreon</t>
+  </si>
+  <si>
+    <t>Scyther, Azumarill, Venomoth, Tauros, Gliscor, Tangrowth</t>
+  </si>
+  <si>
+    <t>Bouffalant, Accelgor, Excavalier, Braviary, Conkeldurr, Volcarona</t>
+  </si>
+  <si>
+    <t>Mgarchomp, Spiritomb, Roserade, Togekiss, Milotic, Lucario</t>
+  </si>
+  <si>
+    <t>Araichu, Crabominable, Sylveon, Toucannon, Apersian, Tauros</t>
+  </si>
+  <si>
+    <t>Aninetails, Venusaur, Amarowak, Lapras, Ursaring, Silvally</t>
+  </si>
+  <si>
+    <t>Incineroar, LycanrocD, Komala, Passimian, Mozambeak, Lurantis</t>
+  </si>
+  <si>
+    <t>Mmetagross, Scarmory, Aggron, Aegislash, Frozight, Combustox</t>
+  </si>
+  <si>
+    <t>Machamp, Lucario, Mmedicham, Wrock, Steelix, Hitmontop</t>
+  </si>
+  <si>
+    <t>Dankpras, Mglalie, Bodanxious, Abomasnow, Aninetails, Asandslash</t>
+  </si>
+  <si>
+    <t>Fragiice,Dustorm,Clefable, Mr Mime, Wigglytuff, Togekiss</t>
+  </si>
+  <si>
+    <t>Malakazam,hydrud,psyzic,meowsticM,Hypno,Slowking</t>
+  </si>
+  <si>
+    <t>Kingdra, Serpentia,Dragonite,Cardinuckle,Dragonite, Aerodactyl</t>
+  </si>
+  <si>
+    <t>Toxicroak, Parajoint, Venomoth, Beedrill, Muk, Weezing</t>
+  </si>
+  <si>
+    <t>Phantasmeon, Gyarados, Arcanine, Shrewdt, Exeggutor, Rhyperior</t>
+  </si>
+  <si>
+    <t>Blissey, Miltank, Lickilicky, Elephantom, Diggersby, Drampa</t>
+  </si>
+  <si>
+    <t>Gengar, mGengar, Willofer, Mismagius, Chandelure, Dusknoir</t>
+  </si>
+  <si>
+    <t>Poliwrath, Primeape, Lucario, Heracross, Wrock, Hitmontop</t>
+  </si>
+  <si>
+    <t>Mammoswine, Bodanxious, Cloyster, Dankpras, Cronagol, Asandslash</t>
+  </si>
+  <si>
+    <t>Dragonite, Dragonite, Dragonite, Cardinuckle, Goodra, Msalamance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dragonite, Ditto, Steelix, Gengar, Mvenusaur, Electivire, </t>
+  </si>
+  <si>
+    <t>Ninetails, Bodanxious, Audino,Nimbuster,Politoed,Amarowak</t>
+  </si>
+  <si>
+    <t>Bellossom, Blissey, Gardevoir, Poliwrath, MLopunny, Fukle</t>
+  </si>
+  <si>
+    <t>Bisharp, Emboar, Maggron, Tazorn, Golurk, Zoroark</t>
+  </si>
+  <si>
+    <t>Snorlax, Steelix, Dankpras, Emboar, Gothorita, Golem</t>
+  </si>
+  <si>
+    <t>Arcanine, Houndoom, Stoutland, Excadrill, Zoroark, LycanrocM</t>
+  </si>
+  <si>
+    <t>Hitmontop,Elephantom, Meinshao, Gallade, Willofer, Lucario</t>
+  </si>
+  <si>
+    <t>Gengar, Cofagrigous, Alakazam, Mismagius, Mandibuzz, Umbreon</t>
+  </si>
+  <si>
+    <t>Meinshao, Togekiss, Lucario, Willofer, Venusaur, Hitmontop</t>
+  </si>
+  <si>
+    <t>Lilligant, Shiftry, MeowsticF, Dusknoir, Espeon, Primarina</t>
+  </si>
+  <si>
+    <t>Aegislash, Bisharp, Scizor, Klinklang, Samurott, Beeheeyem</t>
+  </si>
+  <si>
+    <t>Hitmonlee, Wrock, Machamp, Primape, Kommoo, Blazkekin</t>
+  </si>
+  <si>
+    <t>Dustorm, Gaarock, Steelix, Hippowdon, Dugtrio, Flygon</t>
+  </si>
+  <si>
+    <t>Raichu, Dusknior, Arcanine, Ditto, Butterfree, Bisharp</t>
+  </si>
+  <si>
+    <t>Heracross, Scizor, Volcarona, Venomoth, Forretress, Beedrill</t>
+  </si>
+  <si>
+    <t>Slowbro, Kingdra, Rampardos, Pallosand, Altaria, Wigglytuff</t>
+  </si>
+  <si>
+    <t>Bisharp, Komala, Gallade, Slaking,Aegislash, Samurott</t>
+  </si>
+  <si>
+    <t>Probopass, Milotic, Dhelmise, Persian, Roserade, Pink Oricorio</t>
+  </si>
+  <si>
+    <t>Clawitzer, togekiss, sudowoodo, Octillery, Zebstrika, Abomasnow</t>
+  </si>
+  <si>
+    <t>Kingler, Hitmonlee, Miltank, Hitmontop, Blazekin, Gardevoir</t>
+  </si>
+  <si>
+    <t>Audino, Sawsbuck, Stantler, Lycanroc, Incineroar, Feraligatr</t>
+  </si>
+  <si>
+    <t>Tyrantrum, Aerodactly, Amourous, Cradlilly, Carracosta, Medicham</t>
+  </si>
+  <si>
+    <t>Golurk, dhelmise, sudowoodo, Dankpras, Bronzong, Durant</t>
+  </si>
+  <si>
+    <t>Chandelure, Gengar, Drifblim, Pangoro, Willofer, Jellicent</t>
+  </si>
+  <si>
+    <t>Hitmonchan, Shellgar, Houndoom, Infernape, Huntail, Killltank</t>
+  </si>
+  <si>
+    <t>MBlazekin, Pelliper, Linoone, Breloom, Mawile, Wailord</t>
+  </si>
+  <si>
+    <t>Feraligatr, Sandslash, MGyarados, Noctowl, Scizor, Ampharos</t>
+  </si>
+  <si>
+    <t>Primape, Nidoqueen, Vileplume, Ditto, Pidgeot, MCharizardY</t>
+  </si>
+  <si>
+    <t>Frosslass, MAerodactyl, Slaking, Galvantula, Manaphy, Metagross</t>
+  </si>
+  <si>
+    <t>Infernape, Gyarados, Staraptor, Mtyranitar, Gengar, Crobat</t>
+  </si>
+  <si>
+    <t>Magmortar, Infernape, Gyarados, Mvenusaur, Blastoise, Torterra</t>
+  </si>
+  <si>
+    <t>Slowking, Mtyranitar, Typhlosian, Togekiss, Meganium, Scizor</t>
+  </si>
+  <si>
+    <t>Azumarill, Macargo, Skarmory, Donphan, Noctowl, Raichu</t>
+  </si>
+  <si>
+    <t>Mammoswine, Noctowl, Metagross, Stoutland, Archeops, MKangashkhan</t>
+  </si>
+  <si>
+    <t>Braviary, Galvantula, Samurott, Beartic, Zoroark, Serperior</t>
+  </si>
+  <si>
+    <t>Tyrantrum, Greninja, Pangoro, Clawitzer, Talonflame, Dragalge</t>
+  </si>
+  <si>
+    <t>Mglalie, Swampert, Breloom, Ninetails, Shedinja, Gallade</t>
+  </si>
+  <si>
+    <t>Decidueye, Vikavolt, Crabominable, LycanrocM, Toapex, Salazzle</t>
+  </si>
+  <si>
+    <t>Feraligatr, Mampharos, Steelix, Togekiss, Dragonite, Tyranitar</t>
+  </si>
+  <si>
+    <t>Pikachu, Omastar, Butterfree, Dodrio, Golem, Raticate</t>
+  </si>
+  <si>
+    <t>Mhoundoom, Jumpluff, Ampharos, Corsola, Scizor, Umbreon</t>
+  </si>
+  <si>
+    <t>Blazekin, Ludicolo, Mmanectric, Salamance, Gardevoir, Aggron</t>
+  </si>
+  <si>
+    <t>Samurott, Salamance, Mmetagross, Incineroar, Ampharos, Alakazam</t>
+  </si>
+  <si>
+    <t>Vaporeon, MSalamance, Dankpras, Tyranitar, Gengar, Alakazam</t>
+  </si>
+  <si>
+    <t>Mgardevoir, Cloyster, Manectric, Pidgeot, Milotic, Carbink</t>
+  </si>
+  <si>
+    <t>Emolga, Florges, Feraligatr, Flareon, Dragonite, Cherrim</t>
+  </si>
+  <si>
+    <t>Dunspragon, Parajoint, Magmortar, Bodanxious, Electivire, Noctowl</t>
+  </si>
+  <si>
+    <t>Espeon, Sylveon, Jolteon, Vaporeon, Flareon, Leafeon</t>
+  </si>
+  <si>
+    <t>Wigglytuff, Lopunny, Mmawile, Tangrowth, Lapras, Rhyperior</t>
+  </si>
+  <si>
+    <t>Clefable, Delphox, Ggixie, Goodra, Raichu, Espeon</t>
+  </si>
+  <si>
+    <t>Carracosta, Charizard, Victribel, Dugtrio, Araichu, Pinsir</t>
+  </si>
+  <si>
+    <t>Jolteon, Lucario, Venusaur, Druddigan, Toxapex, Honchkrow</t>
+  </si>
+  <si>
+    <t>Metagross, Dolphnite, Frosslass, Aerodactyl, Volcarona, Weavile</t>
+  </si>
+  <si>
+    <t>Snorlax, Machamp, Alakazam, Mswampert, Charizard, Hawking</t>
+  </si>
+  <si>
+    <t>Mblastoise, Hitmonlee, Delcatty, Haxorous, Dedenne, Macargo</t>
+  </si>
+  <si>
+    <t>Umbreon, Scizor, Elektross, Leafeon, MCharizardX, Politoed</t>
+  </si>
+  <si>
+    <t>Dodrio, Magnezone, Arcanine, Mmawile, Swanna, Excadrill</t>
+  </si>
+  <si>
+    <t>Mismagius, Zebstrika, Muk, Snorlax, Charizard, Mgengar</t>
+  </si>
+  <si>
+    <t>Pikachu, Charizard, Blastoise, Venusaur, Espeon, Nimbuster</t>
+  </si>
+  <si>
+    <t>Typhlosian, Meganium, Feraligatr, Noctowl, Mammoswine, Serpentia</t>
+  </si>
+  <si>
+    <t>Phantasmeon, Arcanine, Gyarados, Shrewdt, Eeggutor, Rhyperior</t>
+  </si>
+  <si>
+    <t>Dragonite, Dragonite, Dragonite, Cardinuckle, Goodra, Salamance</t>
+  </si>
+  <si>
+    <t>Tauros, Gyaragos, Arcanine, Exeggutor, Sylveon, Raichu</t>
+  </si>
+  <si>
+    <t>Metagross, Scarmory, Aggron, Aegislash, Frozight, Combustox</t>
+  </si>
+  <si>
+    <t>Garchomp, Spiritomb, Roserade, Togekiss, Milotic, Lucario</t>
+  </si>
+  <si>
+    <t>Bouffalant, Accelgor, Escavalier, Braviary, Conkeldurr, Volcarona</t>
+  </si>
+  <si>
+    <t>Pikachu, Charizard, Krookidile, AshGreninja, Sceptile, Charizard</t>
+  </si>
+  <si>
+    <t>Dragonite, Dankpras, Pikachu, Aegislash, Gardevoir, Heracross</t>
+  </si>
+  <si>
+    <t>Heidragon, Salamance, Archeops, Aggron, Dankpras, Haxrous</t>
+  </si>
+  <si>
+    <t>Snorlax, Regigigas, Alakazam, ShayminS, Moltres, Hawking</t>
+  </si>
+  <si>
+    <t>Zekrom, Lucario, Venusaur, Victini, Toxapex, Entei</t>
+  </si>
+  <si>
+    <t>Palkia, Dialga, Frosslass, Aerodactyl, Volcarona, Manaphy</t>
+  </si>
+  <si>
+    <t>Articuno, Rayquaza, Salamaence, Tyranitar, Lugia, Alakazam</t>
+  </si>
+  <si>
+    <t>Dragonite, Dankpras, Arceus, Aegislash, Heatran, Genesect</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -176,6 +848,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -185,7 +865,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -193,17 +873,66 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -523,7 +1252,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B2" sqref="B2:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -555,7 +1284,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -563,7 +1292,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -571,7 +1300,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -579,7 +1308,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -587,7 +1316,7 @@
         <v>9</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -595,7 +1324,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -603,7 +1332,7 @@
         <v>11</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -611,7 +1340,7 @@
         <v>12</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -619,7 +1348,7 @@
         <v>13</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -649,13 +1378,16 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="53.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -666,6 +1398,46 @@
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B4" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B5" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B6" t="s">
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -677,13 +1449,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -699,72 +1472,114 @@
     </row>
     <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>32</v>
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>33</v>
+        <v>38</v>
+      </c>
+      <c r="B11" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>34</v>
+        <v>39</v>
+      </c>
+      <c r="B12" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>35</v>
+        <v>40</v>
+      </c>
+      <c r="B13" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>36</v>
+        <v>41</v>
+      </c>
+      <c r="B14" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
+      </c>
+      <c r="B15" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -774,13 +1589,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -791,6 +1610,142 @@
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -800,13 +1755,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="60.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -817,6 +1775,94 @@
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" t="s">
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -826,13 +1872,17 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -843,6 +1893,198 @@
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B11" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B13" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B14" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B15" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B16" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B17" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B18" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B19" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B20" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B21" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B22" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B23" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B24" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B25" t="s">
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -852,23 +2094,170 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A10:C10"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="67.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B7" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B8" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B9" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B10" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B11" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B12" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B13" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B14" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B15" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B16" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B17" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B18" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B19" t="s">
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -878,13 +2267,17 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -895,6 +2288,126 @@
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B6" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B7" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B8" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B9" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B10" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B11" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B12" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B13" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B14" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B15" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B16" t="s">
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -904,13 +2417,17 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -921,6 +2438,246 @@
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B26" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B27" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B28" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="B29" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B30" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B31" t="s">
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -930,13 +2687,16 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="55" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -949,6 +2709,134 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B9" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B12" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B13" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B15" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B16" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B17" t="s">
+        <v>256</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data Input Sheets/Alol Island World Tourmanent.xlsx
+++ b/Data Input Sheets/Alol Island World Tourmanent.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mango\OneDrive\Documents\GitHub\pokemon_game\Data Input Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="5" documentId="9DF56EA49E630B37AF1B8D72A5797696296B0C53" xr6:coauthVersionLast="24" xr6:coauthVersionMax="24" xr10:uidLastSave="{FD0BCECE-880D-451F-8BAD-99FD6DB49211}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13635" firstSheet="8" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13635" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kanto Leader" sheetId="1" r:id="rId1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="265">
   <si>
     <t>Trainer</t>
   </si>
@@ -819,12 +820,21 @@
   </si>
   <si>
     <t>Dragonite, Dankpras, Arceus, Aegislash, Heatran, Genesect</t>
+  </si>
+  <si>
+    <t>Liz</t>
+  </si>
+  <si>
+    <t>Alolan Ninetails, Flareon, Heliolisk, Cincinno, Milotic, Lilligant</t>
+  </si>
+  <si>
+    <t>Agolem, Passimian, Tsareena, Mammoswine, Mursaring, Arcanine</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1248,7 +1258,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1377,10 +1387,10 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -1446,7 +1456,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -1588,7 +1598,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1754,7 +1764,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1871,7 +1881,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2093,7 +2103,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2266,17 +2276,17 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -2408,6 +2418,22 @@
       </c>
       <c r="B16" t="s">
         <v>245</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="B18" t="s">
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -2416,7 +2442,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2686,7 +2712,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
